--- a/Code/Results/Cases/Case_0_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.338934787180332</v>
+        <v>12.34200731711362</v>
       </c>
       <c r="D2">
-        <v>6.286002803274745</v>
+        <v>10.05146358732995</v>
       </c>
       <c r="E2">
-        <v>7.467949598616219</v>
+        <v>12.0484631906906</v>
       </c>
       <c r="F2">
-        <v>43.1262104960871</v>
+        <v>49.39476999151499</v>
       </c>
       <c r="G2">
-        <v>2.107320936302161</v>
+        <v>3.770261953054606</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.96412668961467</v>
+        <v>24.43480305219054</v>
       </c>
       <c r="L2">
-        <v>4.716162391073369</v>
+        <v>8.440110657061931</v>
       </c>
       <c r="M2">
-        <v>19.46600564369414</v>
+        <v>23.5562417717511</v>
       </c>
       <c r="N2">
-        <v>14.83089099065748</v>
+        <v>22.25408938758522</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.997612832024384</v>
+        <v>12.32038623587188</v>
       </c>
       <c r="D3">
-        <v>6.369347969045045</v>
+        <v>10.08313330576238</v>
       </c>
       <c r="E3">
-        <v>7.387197588077908</v>
+        <v>12.06781203948785</v>
       </c>
       <c r="F3">
-        <v>41.40759759868774</v>
+        <v>49.18827397196464</v>
       </c>
       <c r="G3">
-        <v>2.121430781012256</v>
+        <v>3.775037127125897</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.44037517072059</v>
+        <v>24.14787959791643</v>
       </c>
       <c r="L3">
-        <v>4.755799073810407</v>
+        <v>8.457874905457349</v>
       </c>
       <c r="M3">
-        <v>18.53398439882703</v>
+        <v>23.45460189926275</v>
       </c>
       <c r="N3">
-        <v>15.06439471405653</v>
+        <v>22.31564191799413</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.791103537981758</v>
+        <v>12.30993158927236</v>
       </c>
       <c r="D4">
-        <v>6.424276847180183</v>
+        <v>10.10387714873523</v>
       </c>
       <c r="E4">
-        <v>7.342627762210062</v>
+        <v>12.0816047281632</v>
       </c>
       <c r="F4">
-        <v>40.37156970838708</v>
+        <v>49.07445813371206</v>
       </c>
       <c r="G4">
-        <v>2.130238413846943</v>
+        <v>3.778117118941806</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.48126590186607</v>
+        <v>23.97752299586816</v>
       </c>
       <c r="L4">
-        <v>4.781211062848388</v>
+        <v>8.46944075300336</v>
       </c>
       <c r="M4">
-        <v>17.95853205401174</v>
+        <v>23.39803585273626</v>
       </c>
       <c r="N4">
-        <v>15.21219267405521</v>
+        <v>22.35545394587566</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.707759911587599</v>
+        <v>12.30638175427464</v>
       </c>
       <c r="D5">
-        <v>6.447544685996584</v>
+        <v>10.11265655657921</v>
       </c>
       <c r="E5">
-        <v>7.325675284932108</v>
+        <v>12.08770559856469</v>
       </c>
       <c r="F5">
-        <v>39.95431304715129</v>
+        <v>49.03135822263553</v>
       </c>
       <c r="G5">
-        <v>2.13386874384504</v>
+        <v>3.779409621886726</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.08468622123279</v>
+        <v>23.90964055217305</v>
       </c>
       <c r="L5">
-        <v>4.791840823299454</v>
+        <v>8.474320004075755</v>
       </c>
       <c r="M5">
-        <v>17.72340830491223</v>
+        <v>23.37646759327423</v>
       </c>
       <c r="N5">
-        <v>15.27351635888296</v>
+        <v>22.37218533127183</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.693971132521449</v>
+        <v>12.30583524418163</v>
       </c>
       <c r="D6">
-        <v>6.451460088419703</v>
+        <v>10.11413405647303</v>
       </c>
       <c r="E6">
-        <v>7.322931997021515</v>
+        <v>12.088747628464</v>
       </c>
       <c r="F6">
-        <v>39.8853301327073</v>
+        <v>49.02440013159151</v>
       </c>
       <c r="G6">
-        <v>2.13447417695346</v>
+        <v>3.779626503486718</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.01849543923746</v>
+        <v>23.89846386836188</v>
       </c>
       <c r="L6">
-        <v>4.793622555226495</v>
+        <v>8.475140244670719</v>
       </c>
       <c r="M6">
-        <v>17.68433494241872</v>
+        <v>23.37297613183178</v>
       </c>
       <c r="N6">
-        <v>15.28376481834361</v>
+        <v>22.37499422956468</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.789976192469291</v>
+        <v>12.30988083691548</v>
       </c>
       <c r="D7">
-        <v>6.424587139551416</v>
+        <v>10.10399423093136</v>
       </c>
       <c r="E7">
-        <v>7.342394300362399</v>
+        <v>12.08168506305834</v>
       </c>
       <c r="F7">
-        <v>40.3659222793973</v>
+        <v>49.07386356742114</v>
       </c>
       <c r="G7">
-        <v>2.130287201003791</v>
+        <v>3.778134398517943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.47594039401742</v>
+        <v>23.97660117809477</v>
       </c>
       <c r="L7">
-        <v>4.781353304442304</v>
+        <v>8.469505883213667</v>
       </c>
       <c r="M7">
-        <v>17.95536333370471</v>
+        <v>23.39773895450652</v>
       </c>
       <c r="N7">
-        <v>15.21301529333828</v>
+        <v>22.35567753553342</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.220630866773384</v>
+        <v>12.33396781121717</v>
       </c>
       <c r="D8">
-        <v>6.313921658046097</v>
+        <v>10.06211355670358</v>
       </c>
       <c r="E8">
-        <v>7.43903494501395</v>
+        <v>12.05473737086039</v>
       </c>
       <c r="F8">
-        <v>42.52968449642284</v>
+        <v>49.32089007418894</v>
       </c>
       <c r="G8">
-        <v>2.112159208831965</v>
+        <v>3.771877809949574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.44369278400636</v>
+        <v>24.33471198876585</v>
       </c>
       <c r="L8">
-        <v>4.729608430229627</v>
+        <v>8.446099382736667</v>
       </c>
       <c r="M8">
-        <v>19.14539542485532</v>
+        <v>23.5199930150256</v>
       </c>
       <c r="N8">
-        <v>14.91047165992926</v>
+        <v>22.27489380437816</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.08856540559402</v>
+        <v>12.40350677953235</v>
       </c>
       <c r="D9">
-        <v>6.129985866694711</v>
+        <v>9.990307173290514</v>
       </c>
       <c r="E9">
-        <v>7.670751905317755</v>
+        <v>12.01709562239262</v>
       </c>
       <c r="F9">
-        <v>46.92556610750097</v>
+        <v>49.90722231404251</v>
       </c>
       <c r="G9">
-        <v>2.07750263238369</v>
+        <v>3.760775719323744</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.24911494733354</v>
+        <v>25.07957851096383</v>
       </c>
       <c r="L9">
-        <v>4.636476970444845</v>
+        <v>8.405402661281196</v>
       </c>
       <c r="M9">
-        <v>21.44920496918206</v>
+        <v>23.80537378436689</v>
       </c>
       <c r="N9">
-        <v>14.35350230665484</v>
+        <v>22.1324885932722</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.74101378299654</v>
+        <v>12.46805638713994</v>
       </c>
       <c r="D10">
-        <v>6.02068182021538</v>
+        <v>9.943869611372582</v>
       </c>
       <c r="E10">
-        <v>7.87048892666256</v>
+        <v>11.99874572085406</v>
       </c>
       <c r="F10">
-        <v>50.25835798795528</v>
+        <v>50.39847048967092</v>
       </c>
       <c r="G10">
-        <v>2.052178360345746</v>
+        <v>3.753320145729909</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.13383297870412</v>
+        <v>25.64791819080507</v>
       </c>
       <c r="L10">
-        <v>4.572849807452132</v>
+        <v>8.378644768849858</v>
       </c>
       <c r="M10">
-        <v>23.12289698925887</v>
+        <v>24.04179610089368</v>
       </c>
       <c r="N10">
-        <v>13.96891814680563</v>
+        <v>22.03761711190443</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.04173126622002</v>
+        <v>12.50030265311589</v>
       </c>
       <c r="D11">
-        <v>5.978224538139191</v>
+        <v>9.924122302840896</v>
       </c>
       <c r="E11">
-        <v>7.968743165495565</v>
+        <v>11.99242548580891</v>
       </c>
       <c r="F11">
-        <v>51.80240271676578</v>
+        <v>50.63464061894341</v>
       </c>
       <c r="G11">
-        <v>2.040577369963671</v>
+        <v>3.750078437085955</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.41002742850359</v>
+        <v>25.90998268051023</v>
       </c>
       <c r="L11">
-        <v>4.544873775278526</v>
+        <v>8.367147789305326</v>
       </c>
       <c r="M11">
-        <v>24.055418478324</v>
+        <v>24.15489471504928</v>
       </c>
       <c r="N11">
-        <v>13.80018225930589</v>
+        <v>21.99657465086849</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.15627337514288</v>
+        <v>12.51292342960215</v>
       </c>
       <c r="D12">
-        <v>5.963369092494012</v>
+        <v>9.916843193818579</v>
       </c>
       <c r="E12">
-        <v>8.007110818783495</v>
+        <v>11.99032413578855</v>
       </c>
       <c r="F12">
-        <v>52.39183953048566</v>
+        <v>50.72585456285596</v>
       </c>
       <c r="G12">
-        <v>2.036161575119661</v>
+        <v>3.74887226506708</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>32.88874809585624</v>
+        <v>26.00963675333729</v>
       </c>
       <c r="L12">
-        <v>4.534412468141161</v>
+        <v>8.362890804391945</v>
       </c>
       <c r="M12">
-        <v>24.4124459195023</v>
+        <v>24.19849522975969</v>
       </c>
       <c r="N12">
-        <v>13.73728614365322</v>
+        <v>21.98133719671524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.13157288631089</v>
+        <v>12.51018717312252</v>
       </c>
       <c r="D13">
-        <v>5.966510889416997</v>
+        <v>9.918402028304818</v>
       </c>
       <c r="E13">
-        <v>7.998794278460854</v>
+        <v>11.99076370612636</v>
       </c>
       <c r="F13">
-        <v>52.26466862485647</v>
+        <v>50.7061315267667</v>
       </c>
       <c r="G13">
-        <v>2.037113806365064</v>
+        <v>3.749131086866202</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.78583765494299</v>
+        <v>25.98815740428381</v>
       </c>
       <c r="L13">
-        <v>4.536659714800775</v>
+        <v>8.3638033296972</v>
       </c>
       <c r="M13">
-        <v>24.33569946545743</v>
+        <v>24.18907114025085</v>
       </c>
       <c r="N13">
-        <v>13.75078539228314</v>
+        <v>21.98460531007678</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.05114059421999</v>
+        <v>12.5013327873766</v>
       </c>
       <c r="D14">
-        <v>5.976976726367527</v>
+        <v>9.923519458392134</v>
       </c>
       <c r="E14">
-        <v>7.971875806020188</v>
+        <v>11.99224675216927</v>
       </c>
       <c r="F14">
-        <v>51.85079596529329</v>
+        <v>50.6421094107712</v>
       </c>
       <c r="G14">
-        <v>2.04021460675842</v>
+        <v>3.749978776753333</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.44949905634686</v>
+        <v>25.91817346246847</v>
       </c>
       <c r="L14">
-        <v>4.544010500587549</v>
+        <v>8.366795629647376</v>
       </c>
       <c r="M14">
-        <v>24.08485786840287</v>
+        <v>24.158466423712</v>
       </c>
       <c r="N14">
-        <v>13.79498697679342</v>
+        <v>21.9953149531806</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.00196418576388</v>
+        <v>12.49596244256528</v>
       </c>
       <c r="D15">
-        <v>5.983552424156448</v>
+        <v>9.926679939071594</v>
       </c>
       <c r="E15">
-        <v>7.955541849341621</v>
+        <v>11.99319319879456</v>
       </c>
       <c r="F15">
-        <v>51.59793022188857</v>
+        <v>50.60312462582076</v>
       </c>
       <c r="G15">
-        <v>2.042110609286012</v>
+        <v>3.750500792546786</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.24291106073216</v>
+        <v>25.87535776228869</v>
       </c>
       <c r="L15">
-        <v>4.548530127498744</v>
+        <v>8.368641076332088</v>
       </c>
       <c r="M15">
-        <v>23.93077357424841</v>
+        <v>24.13981997803328</v>
       </c>
       <c r="N15">
-        <v>13.82219574774474</v>
+        <v>22.00191457470295</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.72144787375576</v>
+        <v>12.4660066322665</v>
       </c>
       <c r="D16">
-        <v>6.023617047037328</v>
+        <v>9.945187919983734</v>
       </c>
       <c r="E16">
-        <v>7.864224523995904</v>
+        <v>11.99919959798821</v>
       </c>
       <c r="F16">
-        <v>50.15806934225439</v>
+        <v>50.3832880174913</v>
       </c>
       <c r="G16">
-        <v>2.05293397849424</v>
+        <v>3.753535001230497</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.04975673048313</v>
+        <v>25.63085479441067</v>
       </c>
       <c r="L16">
-        <v>4.574697043410052</v>
+        <v>8.379409675093882</v>
       </c>
       <c r="M16">
-        <v>23.0732735273946</v>
+        <v>24.0345143607188</v>
       </c>
       <c r="N16">
-        <v>13.98007890081589</v>
+        <v>22.04034191753728</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.5504235971267</v>
+        <v>12.44836481177179</v>
       </c>
       <c r="D17">
-        <v>6.050171370076857</v>
+        <v>9.956895233778768</v>
       </c>
       <c r="E17">
-        <v>7.81016225483784</v>
+        <v>12.00340390793176</v>
       </c>
       <c r="F17">
-        <v>49.28235437603674</v>
+        <v>50.25164727384386</v>
       </c>
       <c r="G17">
-        <v>2.059545736480798</v>
+        <v>3.755434662409619</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.30897329395915</v>
+        <v>25.48169792568071</v>
       </c>
       <c r="L17">
-        <v>4.590993136772711</v>
+        <v>8.386188514035869</v>
       </c>
       <c r="M17">
-        <v>22.63812157211349</v>
+        <v>23.97131638157904</v>
       </c>
       <c r="N17">
-        <v>14.07859308401223</v>
+        <v>22.06445775752031</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.45241487978973</v>
+        <v>12.43848931709815</v>
       </c>
       <c r="D18">
-        <v>6.066116017293227</v>
+        <v>9.963758571432061</v>
       </c>
       <c r="E18">
-        <v>7.779756193132835</v>
+        <v>12.00601290387683</v>
       </c>
       <c r="F18">
-        <v>48.78123912690327</v>
+        <v>50.17712919237506</v>
       </c>
       <c r="G18">
-        <v>2.063341803903632</v>
+        <v>3.75654141313809</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.87945328348937</v>
+        <v>25.39624394415838</v>
       </c>
       <c r="L18">
-        <v>4.600457799154758</v>
+        <v>8.390151113194964</v>
       </c>
       <c r="M18">
-        <v>22.38757300761297</v>
+        <v>23.93549048433614</v>
       </c>
       <c r="N18">
-        <v>14.13583262720898</v>
+        <v>22.07852760929821</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.41929015841184</v>
+        <v>12.43519242685023</v>
       </c>
       <c r="D19">
-        <v>6.071625073535992</v>
+        <v>9.966104617746986</v>
       </c>
       <c r="E19">
-        <v>7.769576868462893</v>
+        <v>12.00692901761666</v>
       </c>
       <c r="F19">
-        <v>48.61199401161655</v>
+        <v>50.15210574083338</v>
       </c>
       <c r="G19">
-        <v>2.064626220158592</v>
+        <v>3.756918569151881</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.73341661854453</v>
+        <v>25.3673713684298</v>
       </c>
       <c r="L19">
-        <v>4.603678289007453</v>
+        <v>8.391503716291217</v>
       </c>
       <c r="M19">
-        <v>22.30269099063182</v>
+        <v>23.92345118277128</v>
       </c>
       <c r="N19">
-        <v>14.15530925469068</v>
+        <v>22.08332559956332</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.56859155774887</v>
+        <v>12.45021473463048</v>
       </c>
       <c r="D20">
-        <v>6.047273970299771</v>
+        <v>9.955635552113522</v>
       </c>
       <c r="E20">
-        <v>7.815845298831368</v>
+        <v>12.00293660249338</v>
       </c>
       <c r="F20">
-        <v>49.37530501461487</v>
+        <v>50.26553695918948</v>
       </c>
       <c r="G20">
-        <v>2.058842685975382</v>
+        <v>3.755230980443791</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.3881828260936</v>
+        <v>25.49754169978831</v>
       </c>
       <c r="L20">
-        <v>4.58924895697206</v>
+        <v>8.385460316894958</v>
       </c>
       <c r="M20">
-        <v>22.68446976861794</v>
+        <v>23.97798987117329</v>
       </c>
       <c r="N20">
-        <v>14.06804570973114</v>
+        <v>22.06186998142014</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.07474635829093</v>
+        <v>12.50392245276763</v>
       </c>
       <c r="D21">
-        <v>5.973867884876735</v>
+        <v>9.922010944821128</v>
       </c>
       <c r="E21">
-        <v>7.979750040068099</v>
+        <v>11.99180321773842</v>
       </c>
       <c r="F21">
-        <v>51.97222469027871</v>
+        <v>50.66086628392569</v>
       </c>
       <c r="G21">
-        <v>2.039304542684861</v>
+        <v>3.749729210355182</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.54840750118005</v>
+        <v>25.93871887408045</v>
       </c>
       <c r="L21">
-        <v>4.541847854736709</v>
+        <v>8.365914098449256</v>
       </c>
       <c r="M21">
-        <v>24.15862609824087</v>
+        <v>24.1674350143041</v>
       </c>
       <c r="N21">
-        <v>13.78197573101463</v>
+        <v>21.9921610065447</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.40951708407624</v>
+        <v>12.54140971376684</v>
       </c>
       <c r="D22">
-        <v>5.933127832929799</v>
+        <v>9.901194245941221</v>
       </c>
       <c r="E22">
-        <v>8.09369699848309</v>
+        <v>11.98622899732896</v>
       </c>
       <c r="F22">
-        <v>53.69762576132412</v>
+        <v>50.92959727511627</v>
       </c>
       <c r="G22">
-        <v>2.026395909058572</v>
+        <v>3.746258105064856</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>33.93413338108297</v>
+        <v>26.22943660797297</v>
       </c>
       <c r="L22">
-        <v>4.511637708679088</v>
+        <v>8.353702790841524</v>
       </c>
       <c r="M22">
-        <v>25.19194634453009</v>
+        <v>24.29573846538827</v>
       </c>
       <c r="N22">
-        <v>13.60091919888987</v>
+        <v>21.94837681074856</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.23043407270094</v>
+        <v>12.52118540721682</v>
       </c>
       <c r="D23">
-        <v>5.954140690047073</v>
+        <v>9.912198225931768</v>
       </c>
       <c r="E23">
-        <v>8.032219639563246</v>
+        <v>11.98904818286259</v>
       </c>
       <c r="F23">
-        <v>52.7738606963489</v>
+        <v>50.78523817021438</v>
       </c>
       <c r="G23">
-        <v>2.033302465282743</v>
+        <v>3.748099348891663</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.19668760537112</v>
+        <v>26.07408681671141</v>
       </c>
       <c r="L23">
-        <v>4.527693472863978</v>
+        <v>8.36016879957052</v>
       </c>
       <c r="M23">
-        <v>24.64208329211496</v>
+        <v>24.22685841002308</v>
       </c>
       <c r="N23">
-        <v>13.69696766122586</v>
+        <v>21.97158277081104</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.56037684744968</v>
+        <v>12.4493775524423</v>
       </c>
       <c r="D24">
-        <v>6.048581785218798</v>
+        <v>9.956204641081325</v>
       </c>
       <c r="E24">
-        <v>7.813273899110554</v>
+        <v>12.00314727364877</v>
       </c>
       <c r="F24">
-        <v>49.33327477797724</v>
+        <v>50.2592538037026</v>
       </c>
       <c r="G24">
-        <v>2.059160550249003</v>
+        <v>3.755323019540838</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.35238356150234</v>
+        <v>25.49037779351541</v>
       </c>
       <c r="L24">
-        <v>4.590037201716825</v>
+        <v>8.38578933122527</v>
       </c>
       <c r="M24">
-        <v>22.66351693075643</v>
+        <v>23.97497120398528</v>
       </c>
       <c r="N24">
-        <v>14.07281230898519</v>
+        <v>22.06303927544682</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.851298861501078</v>
+        <v>12.38231867417976</v>
       </c>
       <c r="D25">
-        <v>6.175686981789546</v>
+        <v>10.00862512033906</v>
       </c>
       <c r="E25">
-        <v>7.603184416708625</v>
+        <v>12.025647057991</v>
       </c>
       <c r="F25">
-        <v>45.71949368343255</v>
+        <v>49.73784737267102</v>
       </c>
       <c r="G25">
-        <v>2.086821009277299</v>
+        <v>3.763655256373933</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.1511662406443</v>
+        <v>24.87400901426609</v>
       </c>
       <c r="L25">
-        <v>4.660806792098772</v>
+        <v>8.41585827540634</v>
       </c>
       <c r="M25">
-        <v>20.82951360755809</v>
+        <v>23.72338779583399</v>
       </c>
       <c r="N25">
-        <v>14.50008398974592</v>
+        <v>22.16929975488303</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_153/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.34200731711362</v>
+        <v>9.338934787180294</v>
       </c>
       <c r="D2">
-        <v>10.05146358732995</v>
+        <v>6.286002803274866</v>
       </c>
       <c r="E2">
-        <v>12.0484631906906</v>
+        <v>7.467949598616157</v>
       </c>
       <c r="F2">
-        <v>49.39476999151499</v>
+        <v>43.1262104960871</v>
       </c>
       <c r="G2">
-        <v>3.770261953054606</v>
+        <v>2.107320936301761</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.43480305219054</v>
+        <v>24.96412668961467</v>
       </c>
       <c r="L2">
-        <v>8.440110657061931</v>
+        <v>4.716162391073306</v>
       </c>
       <c r="M2">
-        <v>23.5562417717511</v>
+        <v>19.46600564369415</v>
       </c>
       <c r="N2">
-        <v>22.25408938758522</v>
+        <v>14.83089099065742</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.32038623587188</v>
+        <v>8.99761283202443</v>
       </c>
       <c r="D3">
-        <v>10.08313330576238</v>
+        <v>6.369347969045036</v>
       </c>
       <c r="E3">
-        <v>12.06781203948785</v>
+        <v>7.387197588077919</v>
       </c>
       <c r="F3">
-        <v>49.18827397196464</v>
+        <v>41.40759759868764</v>
       </c>
       <c r="G3">
-        <v>3.775037127125897</v>
+        <v>2.121430781012127</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.14787959791643</v>
+        <v>23.44037517072056</v>
       </c>
       <c r="L3">
-        <v>8.457874905457349</v>
+        <v>4.755799073810405</v>
       </c>
       <c r="M3">
-        <v>23.45460189926275</v>
+        <v>18.53398439882702</v>
       </c>
       <c r="N3">
-        <v>22.31564191799413</v>
+        <v>15.06439471405649</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.30993158927236</v>
+        <v>8.791103537981755</v>
       </c>
       <c r="D4">
-        <v>10.10387714873523</v>
+        <v>6.424276847180148</v>
       </c>
       <c r="E4">
-        <v>12.0816047281632</v>
+        <v>7.342627762210061</v>
       </c>
       <c r="F4">
-        <v>49.07445813371206</v>
+        <v>40.37156970838709</v>
       </c>
       <c r="G4">
-        <v>3.778117118941806</v>
+        <v>2.130238413847207</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>23.97752299586816</v>
+        <v>22.48126590186608</v>
       </c>
       <c r="L4">
-        <v>8.46944075300336</v>
+        <v>4.781211062848295</v>
       </c>
       <c r="M4">
-        <v>23.39803585273626</v>
+        <v>17.95853205401171</v>
       </c>
       <c r="N4">
-        <v>22.35545394587566</v>
+        <v>15.21219267405518</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.30638175427464</v>
+        <v>8.707759911587628</v>
       </c>
       <c r="D5">
-        <v>10.11265655657921</v>
+        <v>6.447544685996659</v>
       </c>
       <c r="E5">
-        <v>12.08770559856469</v>
+        <v>7.325675284932165</v>
       </c>
       <c r="F5">
-        <v>49.03135822263553</v>
+        <v>39.95431304715132</v>
       </c>
       <c r="G5">
-        <v>3.779409621886726</v>
+        <v>2.133868743844909</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>23.90964055217305</v>
+        <v>22.0846862212328</v>
       </c>
       <c r="L5">
-        <v>8.474320004075755</v>
+        <v>4.791840823299484</v>
       </c>
       <c r="M5">
-        <v>23.37646759327423</v>
+        <v>17.72340830491225</v>
       </c>
       <c r="N5">
-        <v>22.37218533127183</v>
+        <v>15.27351635888299</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.30583524418163</v>
+        <v>8.693971132521265</v>
       </c>
       <c r="D6">
-        <v>10.11413405647303</v>
+        <v>6.451460088419707</v>
       </c>
       <c r="E6">
-        <v>12.088747628464</v>
+        <v>7.322931997021373</v>
       </c>
       <c r="F6">
-        <v>49.02440013159151</v>
+        <v>39.88533013270734</v>
       </c>
       <c r="G6">
-        <v>3.779626503486718</v>
+        <v>2.134474176953463</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>23.89846386836188</v>
+        <v>22.01849543923746</v>
       </c>
       <c r="L6">
-        <v>8.475140244670719</v>
+        <v>4.793622555226432</v>
       </c>
       <c r="M6">
-        <v>23.37297613183178</v>
+        <v>17.68433494241868</v>
       </c>
       <c r="N6">
-        <v>22.37499422956468</v>
+        <v>15.2837648183436</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.30988083691548</v>
+        <v>8.789976192469377</v>
       </c>
       <c r="D7">
-        <v>10.10399423093136</v>
+        <v>6.424587139551637</v>
       </c>
       <c r="E7">
-        <v>12.08168506305834</v>
+        <v>7.342394300362449</v>
       </c>
       <c r="F7">
-        <v>49.07386356742114</v>
+        <v>40.36592227939739</v>
       </c>
       <c r="G7">
-        <v>3.778134398517943</v>
+        <v>2.130287201003796</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>23.97660117809477</v>
+        <v>22.47594039401745</v>
       </c>
       <c r="L7">
-        <v>8.469505883213667</v>
+        <v>4.781353304442303</v>
       </c>
       <c r="M7">
-        <v>23.39773895450652</v>
+        <v>17.95536333370477</v>
       </c>
       <c r="N7">
-        <v>22.35567753553342</v>
+        <v>15.21301529333834</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.33396781121717</v>
+        <v>9.220630866773314</v>
       </c>
       <c r="D8">
-        <v>10.06211355670358</v>
+        <v>6.313921658045841</v>
       </c>
       <c r="E8">
-        <v>12.05473737086039</v>
+        <v>7.439034945013935</v>
       </c>
       <c r="F8">
-        <v>49.32089007418894</v>
+        <v>42.52968449642282</v>
       </c>
       <c r="G8">
-        <v>3.771877809949574</v>
+        <v>2.112159208832367</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.33471198876585</v>
+        <v>24.44369278400636</v>
       </c>
       <c r="L8">
-        <v>8.446099382736667</v>
+        <v>4.72960843022965</v>
       </c>
       <c r="M8">
-        <v>23.5199930150256</v>
+        <v>19.14539542485528</v>
       </c>
       <c r="N8">
-        <v>22.27489380437816</v>
+        <v>14.91047165992918</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.40350677953235</v>
+        <v>10.08856540559404</v>
       </c>
       <c r="D9">
-        <v>9.990307173290514</v>
+        <v>6.129985866694606</v>
       </c>
       <c r="E9">
-        <v>12.01709562239262</v>
+        <v>7.670751905317788</v>
       </c>
       <c r="F9">
-        <v>49.90722231404251</v>
+        <v>46.92556610750088</v>
       </c>
       <c r="G9">
-        <v>3.760775719323744</v>
+        <v>2.077502632383702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.07957851096383</v>
+        <v>28.24911494733361</v>
       </c>
       <c r="L9">
-        <v>8.405402661281196</v>
+        <v>4.636476970444858</v>
       </c>
       <c r="M9">
-        <v>23.80537378436689</v>
+        <v>21.44920496918206</v>
       </c>
       <c r="N9">
-        <v>22.1324885932722</v>
+        <v>14.35350230665476</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.46805638713994</v>
+        <v>10.74101378299661</v>
       </c>
       <c r="D10">
-        <v>9.943869611372582</v>
+        <v>6.020681820215451</v>
       </c>
       <c r="E10">
-        <v>11.99874572085406</v>
+        <v>7.870488926662538</v>
       </c>
       <c r="F10">
-        <v>50.39847048967092</v>
+        <v>50.25835798795545</v>
       </c>
       <c r="G10">
-        <v>3.753320145729909</v>
+        <v>2.052178360345748</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.64791819080507</v>
+        <v>31.13383297870416</v>
       </c>
       <c r="L10">
-        <v>8.378644768849858</v>
+        <v>4.572849807452091</v>
       </c>
       <c r="M10">
-        <v>24.04179610089368</v>
+        <v>23.1228969892589</v>
       </c>
       <c r="N10">
-        <v>22.03761711190443</v>
+        <v>13.96891814680572</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.50030265311589</v>
+        <v>11.04173126621998</v>
       </c>
       <c r="D11">
-        <v>9.924122302840896</v>
+        <v>5.978224538139341</v>
       </c>
       <c r="E11">
-        <v>11.99242548580891</v>
+        <v>7.968743165495552</v>
       </c>
       <c r="F11">
-        <v>50.63464061894341</v>
+        <v>51.80240271676575</v>
       </c>
       <c r="G11">
-        <v>3.750078437085955</v>
+        <v>2.040577369963674</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.90998268051023</v>
+        <v>32.41002742850363</v>
       </c>
       <c r="L11">
-        <v>8.367147789305326</v>
+        <v>4.544873775278563</v>
       </c>
       <c r="M11">
-        <v>24.15489471504928</v>
+        <v>24.05541847832404</v>
       </c>
       <c r="N11">
-        <v>21.99657465086849</v>
+        <v>13.80018225930589</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.51292342960215</v>
+        <v>11.15627337514289</v>
       </c>
       <c r="D12">
-        <v>9.916843193818579</v>
+        <v>5.963369092493992</v>
       </c>
       <c r="E12">
-        <v>11.99032413578855</v>
+        <v>8.007110818783577</v>
       </c>
       <c r="F12">
-        <v>50.72585456285596</v>
+        <v>52.39183953048578</v>
       </c>
       <c r="G12">
-        <v>3.74887226506708</v>
+        <v>2.036161575119667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.00963675333729</v>
+        <v>32.88874809585636</v>
       </c>
       <c r="L12">
-        <v>8.362890804391945</v>
+        <v>4.534412468141221</v>
       </c>
       <c r="M12">
-        <v>24.19849522975969</v>
+        <v>24.41244591950233</v>
       </c>
       <c r="N12">
-        <v>21.98133719671524</v>
+        <v>13.73728614365322</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.51018717312252</v>
+        <v>11.13157288631093</v>
       </c>
       <c r="D13">
-        <v>9.918402028304818</v>
+        <v>5.966510889417076</v>
       </c>
       <c r="E13">
-        <v>11.99076370612636</v>
+        <v>7.998794278460851</v>
       </c>
       <c r="F13">
-        <v>50.7061315267667</v>
+        <v>52.26466862485639</v>
       </c>
       <c r="G13">
-        <v>3.749131086866202</v>
+        <v>2.037113806365064</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.98815740428381</v>
+        <v>32.78583765494295</v>
       </c>
       <c r="L13">
-        <v>8.3638033296972</v>
+        <v>4.536659714800747</v>
       </c>
       <c r="M13">
-        <v>24.18907114025085</v>
+        <v>24.33569946545741</v>
       </c>
       <c r="N13">
-        <v>21.98460531007678</v>
+        <v>13.75078539228309</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.5013327873766</v>
+        <v>11.05114059421995</v>
       </c>
       <c r="D14">
-        <v>9.923519458392134</v>
+        <v>5.976976726367445</v>
       </c>
       <c r="E14">
-        <v>11.99224675216927</v>
+        <v>7.971875806020234</v>
       </c>
       <c r="F14">
-        <v>50.6421094107712</v>
+        <v>51.85079596529335</v>
       </c>
       <c r="G14">
-        <v>3.749978776753333</v>
+        <v>2.04021460675842</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.91817346246847</v>
+        <v>32.4494990563469</v>
       </c>
       <c r="L14">
-        <v>8.366795629647376</v>
+        <v>4.544010500587562</v>
       </c>
       <c r="M14">
-        <v>24.158466423712</v>
+        <v>24.08485786840291</v>
       </c>
       <c r="N14">
-        <v>21.9953149531806</v>
+        <v>13.79498697679338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.49596244256528</v>
+        <v>11.00196418576388</v>
       </c>
       <c r="D15">
-        <v>9.926679939071594</v>
+        <v>5.983552424156473</v>
       </c>
       <c r="E15">
-        <v>11.99319319879456</v>
+        <v>7.95554184934173</v>
       </c>
       <c r="F15">
-        <v>50.60312462582076</v>
+        <v>51.59793022188855</v>
       </c>
       <c r="G15">
-        <v>3.750500792546786</v>
+        <v>2.042110609285742</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.87535776228869</v>
+        <v>32.2429110607323</v>
       </c>
       <c r="L15">
-        <v>8.368641076332088</v>
+        <v>4.548530127498921</v>
       </c>
       <c r="M15">
-        <v>24.13981997803328</v>
+        <v>23.93077357424849</v>
       </c>
       <c r="N15">
-        <v>22.00191457470295</v>
+        <v>13.82219574774459</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.4660066322665</v>
+        <v>10.72144787375577</v>
       </c>
       <c r="D16">
-        <v>9.945187919983734</v>
+        <v>6.023617047037338</v>
       </c>
       <c r="E16">
-        <v>11.99919959798821</v>
+        <v>7.864224523995947</v>
       </c>
       <c r="F16">
-        <v>50.3832880174913</v>
+        <v>50.15806934225431</v>
       </c>
       <c r="G16">
-        <v>3.753535001230497</v>
+        <v>2.052933978494237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.63085479441067</v>
+        <v>31.04975673048313</v>
       </c>
       <c r="L16">
-        <v>8.379409675093882</v>
+        <v>4.574697043410116</v>
       </c>
       <c r="M16">
-        <v>24.0345143607188</v>
+        <v>23.07327352739459</v>
       </c>
       <c r="N16">
-        <v>22.04034191753728</v>
+        <v>13.98007890081588</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.44836481177179</v>
+        <v>10.55042359712676</v>
       </c>
       <c r="D17">
-        <v>9.956895233778768</v>
+        <v>6.05017137007682</v>
       </c>
       <c r="E17">
-        <v>12.00340390793176</v>
+        <v>7.810162254837821</v>
       </c>
       <c r="F17">
-        <v>50.25164727384386</v>
+        <v>49.2823543760367</v>
       </c>
       <c r="G17">
-        <v>3.755434662409619</v>
+        <v>2.059545736480663</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.48169792568071</v>
+        <v>30.30897329395921</v>
       </c>
       <c r="L17">
-        <v>8.386188514035869</v>
+        <v>4.590993136772629</v>
       </c>
       <c r="M17">
-        <v>23.97131638157904</v>
+        <v>22.63812157211348</v>
       </c>
       <c r="N17">
-        <v>22.06445775752031</v>
+        <v>14.07859308401212</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.43848931709815</v>
+        <v>10.45241487978966</v>
       </c>
       <c r="D18">
-        <v>9.963758571432061</v>
+        <v>6.066116017293228</v>
       </c>
       <c r="E18">
-        <v>12.00601290387683</v>
+        <v>7.779756193132791</v>
       </c>
       <c r="F18">
-        <v>50.17712919237506</v>
+        <v>48.78123912690322</v>
       </c>
       <c r="G18">
-        <v>3.75654141313809</v>
+        <v>2.063341803903906</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.39624394415838</v>
+        <v>29.87945328348932</v>
       </c>
       <c r="L18">
-        <v>8.390151113194964</v>
+        <v>4.60045779915478</v>
       </c>
       <c r="M18">
-        <v>23.93549048433614</v>
+        <v>22.38757300761295</v>
       </c>
       <c r="N18">
-        <v>22.07852760929821</v>
+        <v>14.13583262720899</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.43519242685023</v>
+        <v>10.4192901584117</v>
       </c>
       <c r="D19">
-        <v>9.966104617746986</v>
+        <v>6.071625073535941</v>
       </c>
       <c r="E19">
-        <v>12.00692901761666</v>
+        <v>7.769576868462817</v>
       </c>
       <c r="F19">
-        <v>50.15210574083338</v>
+        <v>48.61199401161655</v>
       </c>
       <c r="G19">
-        <v>3.756918569151881</v>
+        <v>2.064626220158062</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.3673713684298</v>
+        <v>29.73341661854454</v>
       </c>
       <c r="L19">
-        <v>8.391503716291217</v>
+        <v>4.603678289007517</v>
       </c>
       <c r="M19">
-        <v>23.92345118277128</v>
+        <v>22.30269099063181</v>
       </c>
       <c r="N19">
-        <v>22.08332559956332</v>
+        <v>14.15530925469062</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.45021473463048</v>
+        <v>10.56859155774889</v>
       </c>
       <c r="D20">
-        <v>9.955635552113522</v>
+        <v>6.047273970299748</v>
       </c>
       <c r="E20">
-        <v>12.00293660249338</v>
+        <v>7.815845298831249</v>
       </c>
       <c r="F20">
-        <v>50.26553695918948</v>
+        <v>49.3753050146147</v>
       </c>
       <c r="G20">
-        <v>3.755230980443791</v>
+        <v>2.058842685974981</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.49754169978831</v>
+        <v>30.38818282609363</v>
       </c>
       <c r="L20">
-        <v>8.385460316894958</v>
+        <v>4.589248956971922</v>
       </c>
       <c r="M20">
-        <v>23.97798987117329</v>
+        <v>22.68446976861789</v>
       </c>
       <c r="N20">
-        <v>22.06186998142014</v>
+        <v>14.06804570973106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.50392245276763</v>
+        <v>11.07474635829092</v>
       </c>
       <c r="D21">
-        <v>9.922010944821128</v>
+        <v>5.973867884876586</v>
       </c>
       <c r="E21">
-        <v>11.99180321773842</v>
+        <v>7.979750040068039</v>
       </c>
       <c r="F21">
-        <v>50.66086628392569</v>
+        <v>51.97222469027876</v>
       </c>
       <c r="G21">
-        <v>3.749729210355182</v>
+        <v>2.039304542684865</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.93871887408045</v>
+        <v>32.54840750118021</v>
       </c>
       <c r="L21">
-        <v>8.365914098449256</v>
+        <v>4.541847854736679</v>
       </c>
       <c r="M21">
-        <v>24.1674350143041</v>
+        <v>24.15862609824098</v>
       </c>
       <c r="N21">
-        <v>21.9921610065447</v>
+        <v>13.78197573101459</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.54140971376684</v>
+        <v>11.40951708407627</v>
       </c>
       <c r="D22">
-        <v>9.901194245941221</v>
+        <v>5.933127832929749</v>
       </c>
       <c r="E22">
-        <v>11.98622899732896</v>
+        <v>8.093696998483118</v>
       </c>
       <c r="F22">
-        <v>50.92959727511627</v>
+        <v>53.69762576132426</v>
       </c>
       <c r="G22">
-        <v>3.746258105064856</v>
+        <v>2.026395909058833</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.22943660797297</v>
+        <v>33.93413338108316</v>
       </c>
       <c r="L22">
-        <v>8.353702790841524</v>
+        <v>4.511637708679124</v>
       </c>
       <c r="M22">
-        <v>24.29573846538827</v>
+        <v>25.19194634453025</v>
       </c>
       <c r="N22">
-        <v>21.94837681074856</v>
+        <v>13.60091919888977</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.52118540721682</v>
+        <v>11.23043407270092</v>
       </c>
       <c r="D23">
-        <v>9.912198225931768</v>
+        <v>5.954140690047174</v>
       </c>
       <c r="E23">
-        <v>11.98904818286259</v>
+        <v>8.032219639563174</v>
       </c>
       <c r="F23">
-        <v>50.78523817021438</v>
+        <v>52.77386069634896</v>
       </c>
       <c r="G23">
-        <v>3.748099348891663</v>
+        <v>2.033302465282746</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.07408681671141</v>
+        <v>33.19668760537116</v>
       </c>
       <c r="L23">
-        <v>8.36016879957052</v>
+        <v>4.527693472863985</v>
       </c>
       <c r="M23">
-        <v>24.22685841002308</v>
+        <v>24.64208329211505</v>
       </c>
       <c r="N23">
-        <v>21.97158277081104</v>
+        <v>13.69696766122586</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.4493775524423</v>
+        <v>10.56037684744971</v>
       </c>
       <c r="D24">
-        <v>9.956204641081325</v>
+        <v>6.048581785218929</v>
       </c>
       <c r="E24">
-        <v>12.00314727364877</v>
+        <v>7.813273899110519</v>
       </c>
       <c r="F24">
-        <v>50.2592538037026</v>
+        <v>49.33327477797734</v>
       </c>
       <c r="G24">
-        <v>3.755323019540838</v>
+        <v>2.059160550249003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.49037779351541</v>
+        <v>30.35238356150243</v>
       </c>
       <c r="L24">
-        <v>8.38578933122527</v>
+        <v>4.590037201716701</v>
       </c>
       <c r="M24">
-        <v>23.97497120398528</v>
+        <v>22.66351693075646</v>
       </c>
       <c r="N24">
-        <v>22.06303927544682</v>
+        <v>14.07281230898516</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.38231867417976</v>
+        <v>9.851298861501142</v>
       </c>
       <c r="D25">
-        <v>10.00862512033906</v>
+        <v>6.175686981789622</v>
       </c>
       <c r="E25">
-        <v>12.025647057991</v>
+        <v>7.603184416708555</v>
       </c>
       <c r="F25">
-        <v>49.73784737267102</v>
+        <v>45.7194936834325</v>
       </c>
       <c r="G25">
-        <v>3.763655256373933</v>
+        <v>2.086821009277433</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>24.87400901426609</v>
+        <v>27.15116624064438</v>
       </c>
       <c r="L25">
-        <v>8.41585827540634</v>
+        <v>4.660806792098657</v>
       </c>
       <c r="M25">
-        <v>23.72338779583399</v>
+        <v>20.82951360755808</v>
       </c>
       <c r="N25">
-        <v>22.16929975488303</v>
+        <v>14.50008398974587</v>
       </c>
       <c r="O25">
         <v>0</v>
